--- a/Code/Results/Cases/Case_5_249/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_249/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.73157050949604</v>
+        <v>13.38281187720569</v>
       </c>
       <c r="C2">
-        <v>6.634764737096861</v>
+        <v>6.832164312212983</v>
       </c>
       <c r="D2">
-        <v>5.391531282137606</v>
+        <v>7.896926053294598</v>
       </c>
       <c r="E2">
-        <v>7.642219718657149</v>
+        <v>12.68668211513331</v>
       </c>
       <c r="F2">
-        <v>24.49297058673502</v>
+        <v>37.45241620910736</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>17.67075481764227</v>
+        <v>28.21906590238764</v>
       </c>
       <c r="J2">
-        <v>5.83420190809534</v>
+        <v>10.03606963874178</v>
       </c>
       <c r="K2">
-        <v>11.35287747413497</v>
+        <v>10.72411960809373</v>
       </c>
       <c r="L2">
-        <v>6.894850240662138</v>
+        <v>11.06668315814925</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.38593238357579</v>
+        <v>28.97586259261839</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.82114690915128</v>
+        <v>13.15373421135726</v>
       </c>
       <c r="C3">
-        <v>6.470546737508304</v>
+        <v>6.775562307236552</v>
       </c>
       <c r="D3">
-        <v>5.203113957087979</v>
+        <v>7.876471785846572</v>
       </c>
       <c r="E3">
-        <v>7.597044155885251</v>
+        <v>12.703939935333</v>
       </c>
       <c r="F3">
-        <v>24.46171975626039</v>
+        <v>37.55689932773253</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>17.87073226928702</v>
+        <v>28.3246128628004</v>
       </c>
       <c r="J3">
-        <v>5.879743295836399</v>
+        <v>10.0558393029501</v>
       </c>
       <c r="K3">
-        <v>10.68092320702856</v>
+        <v>10.56022031431843</v>
       </c>
       <c r="L3">
-        <v>6.757582292207299</v>
+        <v>11.06398152686172</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.50017405255895</v>
+        <v>29.07451256594343</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.26370786471506</v>
+        <v>13.01292755549217</v>
       </c>
       <c r="C4">
-        <v>6.367433143821562</v>
+        <v>6.740177643211755</v>
       </c>
       <c r="D4">
-        <v>5.0856202711663</v>
+        <v>7.864896692918354</v>
       </c>
       <c r="E4">
-        <v>7.572218133709549</v>
+        <v>12.71604418821457</v>
       </c>
       <c r="F4">
-        <v>24.46076057151683</v>
+        <v>37.62830855442292</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>18.00410984295789</v>
+        <v>28.39395801630201</v>
       </c>
       <c r="J4">
-        <v>5.909005744581755</v>
+        <v>10.06870283130541</v>
       </c>
       <c r="K4">
-        <v>10.24601207632444</v>
+        <v>10.45963443465757</v>
       </c>
       <c r="L4">
-        <v>6.67434794291059</v>
+        <v>11.06363899743057</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.58309239434295</v>
+        <v>29.14017482780638</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.02959663913789</v>
+        <v>12.95558083655272</v>
       </c>
       <c r="C5">
-        <v>6.324870965522114</v>
+        <v>6.725605647484099</v>
       </c>
       <c r="D5">
-        <v>5.037357270534328</v>
+        <v>7.860430381992954</v>
       </c>
       <c r="E5">
-        <v>7.562830217943627</v>
+        <v>12.72135647915258</v>
       </c>
       <c r="F5">
-        <v>24.46481571215284</v>
+        <v>37.65923092040819</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>18.0610427987339</v>
+        <v>28.4233584200218</v>
       </c>
       <c r="J5">
-        <v>5.921257869809408</v>
+        <v>10.07412755763607</v>
       </c>
       <c r="K5">
-        <v>10.06320448519579</v>
+        <v>10.41870426955324</v>
       </c>
       <c r="L5">
-        <v>6.640730126118878</v>
+        <v>11.06383173903096</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.61997889451571</v>
+        <v>29.16821213268886</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.990305687423</v>
+        <v>12.94606256384295</v>
       </c>
       <c r="C6">
-        <v>6.317771749448947</v>
+        <v>6.723176951550812</v>
       </c>
       <c r="D6">
-        <v>5.029322260473102</v>
+        <v>7.859703982556993</v>
       </c>
       <c r="E6">
-        <v>7.561315267243987</v>
+        <v>12.72226152972425</v>
       </c>
       <c r="F6">
-        <v>24.46575350185667</v>
+        <v>37.66447556738143</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>18.07065002079993</v>
+        <v>28.4283093007196</v>
       </c>
       <c r="J6">
-        <v>5.92331212082597</v>
+        <v>10.07503937950682</v>
       </c>
       <c r="K6">
-        <v>10.03251390830974</v>
+        <v>10.41191281736044</v>
       </c>
       <c r="L6">
-        <v>6.635167172051499</v>
+        <v>11.06388385230211</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.62628759848173</v>
+        <v>29.17294495724375</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.26057857732744</v>
+        <v>13.012153928391</v>
       </c>
       <c r="C7">
-        <v>6.366861288692824</v>
+        <v>6.739981729303392</v>
       </c>
       <c r="D7">
-        <v>5.084970834096465</v>
+        <v>7.864835439759278</v>
       </c>
       <c r="E7">
-        <v>7.572088578895819</v>
+        <v>12.71611429350102</v>
       </c>
       <c r="F7">
-        <v>24.46079744322128</v>
+        <v>37.62871820782303</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>18.00486731732884</v>
+        <v>28.39434989729133</v>
       </c>
       <c r="J7">
-        <v>5.909169654401316</v>
+        <v>10.06877525056701</v>
       </c>
       <c r="K7">
-        <v>10.24356919409098</v>
+        <v>10.45908213316095</v>
       </c>
       <c r="L7">
-        <v>6.673893293928549</v>
+        <v>11.06364024954631</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.5835774701175</v>
+        <v>29.14054776942824</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.42031630942082</v>
+        <v>13.3038999270391</v>
       </c>
       <c r="C8">
-        <v>6.578634360535804</v>
+        <v>6.812782541872599</v>
       </c>
       <c r="D8">
-        <v>5.32697986770122</v>
+        <v>7.88967119748086</v>
       </c>
       <c r="E8">
-        <v>7.626037087340004</v>
+        <v>12.69231998383495</v>
       </c>
       <c r="F8">
-        <v>24.47833005361707</v>
+        <v>37.48693475803132</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>17.73745753165824</v>
+        <v>28.25451665616574</v>
       </c>
       <c r="J8">
-        <v>5.849635126232266</v>
+        <v>10.04273604730381</v>
       </c>
       <c r="K8">
-        <v>11.12583969606172</v>
+        <v>10.66762508636207</v>
       </c>
       <c r="L8">
-        <v>6.847324781061081</v>
+        <v>11.06547926912064</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.42260114661386</v>
+        <v>29.00882008769197</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.53733668949446</v>
+        <v>13.87173661705192</v>
       </c>
       <c r="C9">
-        <v>6.974556777145765</v>
+        <v>6.950273706439337</v>
       </c>
       <c r="D9">
-        <v>5.784470820815381</v>
+        <v>7.946032235522976</v>
       </c>
       <c r="E9">
-        <v>7.755043276542825</v>
+        <v>12.65759939393346</v>
       </c>
       <c r="F9">
-        <v>24.663320621971</v>
+        <v>37.26656081265286</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>17.30110358518355</v>
+        <v>28.01630222525489</v>
       </c>
       <c r="J9">
-        <v>5.743178057180748</v>
+        <v>9.997404019971057</v>
       </c>
       <c r="K9">
-        <v>12.67786824447134</v>
+        <v>11.07492515923822</v>
       </c>
       <c r="L9">
-        <v>7.194141643372038</v>
+        <v>11.07946813859805</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.21364415921926</v>
+        <v>28.79092703572812</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.93265483794428</v>
+        <v>14.28233424825462</v>
       </c>
       <c r="C10">
-        <v>7.252166915030779</v>
+        <v>7.047726702870719</v>
       </c>
       <c r="D10">
-        <v>6.106928280429951</v>
+        <v>7.991899922352068</v>
       </c>
       <c r="E10">
-        <v>7.864072640155544</v>
+        <v>12.63933534555403</v>
       </c>
       <c r="F10">
-        <v>24.8989017685876</v>
+        <v>37.13991799865087</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>17.0401776766534</v>
+        <v>27.86320918337089</v>
       </c>
       <c r="J10">
-        <v>5.671208908115421</v>
+        <v>9.967563316600048</v>
       </c>
       <c r="K10">
-        <v>13.70911099533993</v>
+        <v>11.37049019183829</v>
       </c>
       <c r="L10">
-        <v>7.45097779018074</v>
+        <v>11.09598834228598</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.13282437445878</v>
+        <v>28.655526989793</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.53332996326094</v>
+        <v>14.46689614775682</v>
       </c>
       <c r="C11">
-        <v>7.37532316627633</v>
+        <v>7.091214984104803</v>
       </c>
       <c r="D11">
-        <v>6.250099420902836</v>
+        <v>8.013686470472233</v>
       </c>
       <c r="E11">
-        <v>7.916772053070417</v>
+        <v>12.63259190499313</v>
       </c>
       <c r="F11">
-        <v>25.0292943134512</v>
+        <v>37.08998309681482</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>16.93588339857812</v>
+        <v>27.79831942979865</v>
       </c>
       <c r="J11">
-        <v>5.639820679181113</v>
+        <v>9.954734229075743</v>
       </c>
       <c r="K11">
-        <v>14.15465556606523</v>
+        <v>11.50360955901336</v>
       </c>
       <c r="L11">
-        <v>7.56785442328253</v>
+        <v>11.10483874285126</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.11356806235739</v>
+        <v>28.5992991658652</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.75594637954939</v>
+        <v>14.53640271314375</v>
       </c>
       <c r="C12">
-        <v>7.421491597170126</v>
+        <v>7.107555553865816</v>
       </c>
       <c r="D12">
-        <v>6.303770659196632</v>
+        <v>8.022064575736092</v>
       </c>
       <c r="E12">
-        <v>7.937173131669222</v>
+        <v>12.63026264678017</v>
       </c>
       <c r="F12">
-        <v>25.08213179670518</v>
+        <v>37.07217913818938</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>16.89859309383906</v>
+        <v>27.77443069409023</v>
       </c>
       <c r="J12">
-        <v>5.628129044063416</v>
+        <v>9.949982941436955</v>
       </c>
       <c r="K12">
-        <v>14.31999623773572</v>
+        <v>11.55378327987766</v>
       </c>
       <c r="L12">
-        <v>7.612087254188675</v>
+        <v>11.10838022199987</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.10894117630577</v>
+        <v>28.57877960485519</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.70821664890066</v>
+        <v>14.52145124534587</v>
       </c>
       <c r="C13">
-        <v>7.411569478891076</v>
+        <v>7.104042087601346</v>
       </c>
       <c r="D13">
-        <v>6.292236376133789</v>
+        <v>8.02025457979277</v>
       </c>
       <c r="E13">
-        <v>7.932759625932107</v>
+        <v>12.63075432845091</v>
       </c>
       <c r="F13">
-        <v>25.07059651982744</v>
+        <v>37.07596435793606</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>16.9065240045522</v>
+        <v>27.77954515492711</v>
       </c>
       <c r="J13">
-        <v>5.630638396437257</v>
+        <v>9.951001472298387</v>
       </c>
       <c r="K13">
-        <v>14.28453711969497</v>
+        <v>11.54298863155069</v>
       </c>
       <c r="L13">
-        <v>7.602562547997602</v>
+        <v>11.10760908248935</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.10981674604393</v>
+        <v>28.58316447759692</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.55174157379987</v>
+        <v>14.47262252435043</v>
       </c>
       <c r="C14">
-        <v>7.379130947063387</v>
+        <v>7.092561922901125</v>
       </c>
       <c r="D14">
-        <v>6.254526102382199</v>
+        <v>8.014373202648663</v>
       </c>
       <c r="E14">
-        <v>7.918441551997918</v>
+        <v>12.63239578366404</v>
       </c>
       <c r="F14">
-        <v>25.03357125559422</v>
+        <v>37.08849619428577</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>16.93277054389554</v>
+        <v>27.79634038784782</v>
       </c>
       <c r="J14">
-        <v>5.638854903681717</v>
+        <v>9.954341199477955</v>
       </c>
       <c r="K14">
-        <v>14.16832583977804</v>
+        <v>11.50774234916403</v>
       </c>
       <c r="L14">
-        <v>7.5714941746617</v>
+        <v>11.10512630585988</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.11313313733849</v>
+        <v>28.59759551749138</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.45526651163164</v>
+        <v>14.44266180715475</v>
       </c>
       <c r="C15">
-        <v>7.359199952492862</v>
+        <v>7.085513204794651</v>
       </c>
       <c r="D15">
-        <v>6.231355495564141</v>
+        <v>8.01078722592873</v>
       </c>
       <c r="E15">
-        <v>7.909729226318822</v>
+        <v>12.63343041598829</v>
       </c>
       <c r="F15">
-        <v>25.01134638476567</v>
+        <v>37.09631629193385</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>16.94913839106916</v>
+        <v>27.80671698276855</v>
       </c>
       <c r="J15">
-        <v>5.643913076322602</v>
+        <v>9.956400776542603</v>
       </c>
       <c r="K15">
-        <v>14.09670370275422</v>
+        <v>11.48612102088526</v>
       </c>
       <c r="L15">
-        <v>7.55245964029979</v>
+        <v>11.10363021948705</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.11551602581597</v>
+        <v>28.60653560382215</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.89271829631327</v>
+        <v>14.27022249013736</v>
       </c>
       <c r="C16">
-        <v>7.244053770185967</v>
+        <v>7.044867134276743</v>
       </c>
       <c r="D16">
-        <v>6.097497492471132</v>
+        <v>7.99049427899344</v>
       </c>
       <c r="E16">
-        <v>7.860690941215882</v>
+        <v>12.63980747717007</v>
       </c>
       <c r="F16">
-        <v>24.89085812270858</v>
+        <v>37.14333595302956</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>17.04729448527721</v>
+        <v>27.86754553467521</v>
       </c>
       <c r="J16">
-        <v>5.67328739511127</v>
+        <v>9.968416696118151</v>
       </c>
       <c r="K16">
-        <v>13.67952018924415</v>
+        <v>11.36175988882503</v>
       </c>
       <c r="L16">
-        <v>7.443337682630884</v>
+        <v>11.09543664962559</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.13444765252639</v>
+        <v>28.65930968274095</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.53892560351633</v>
+        <v>14.16382143514836</v>
       </c>
       <c r="C17">
-        <v>7.172599880288999</v>
+        <v>7.01971158130447</v>
       </c>
       <c r="D17">
-        <v>6.014449778515154</v>
+        <v>7.978278019207361</v>
       </c>
       <c r="E17">
-        <v>7.83140131513695</v>
+        <v>12.64411993560567</v>
       </c>
       <c r="F17">
-        <v>24.82297882528579</v>
+        <v>37.17414807369154</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>17.11129021555641</v>
+        <v>27.90607932809586</v>
       </c>
       <c r="J17">
-        <v>5.6916536392685</v>
+        <v>9.975978748425268</v>
       </c>
       <c r="K17">
-        <v>13.41756098630051</v>
+        <v>11.28509481925736</v>
       </c>
       <c r="L17">
-        <v>7.376382004808693</v>
+        <v>11.09075077724929</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.15064969143135</v>
+        <v>28.69306005390411</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.3322241472133</v>
+        <v>14.10241692470874</v>
       </c>
       <c r="C18">
-        <v>7.131207782625857</v>
+        <v>7.005163734280216</v>
       </c>
       <c r="D18">
-        <v>5.966353899373726</v>
+        <v>7.971338524420103</v>
       </c>
       <c r="E18">
-        <v>7.814846713665727</v>
+        <v>12.64674769446148</v>
       </c>
       <c r="F18">
-        <v>24.78611566634858</v>
+        <v>37.19259276978354</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>17.14944596114159</v>
+        <v>27.92869031617543</v>
       </c>
       <c r="J18">
-        <v>5.702344551488173</v>
+        <v>9.98039844417826</v>
       </c>
       <c r="K18">
-        <v>13.26466905285807</v>
+        <v>11.24087598551031</v>
       </c>
       <c r="L18">
-        <v>7.337876437515344</v>
+        <v>11.08818139574677</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.16160765691728</v>
+        <v>28.71297741995767</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.26168583169282</v>
+        <v>14.08159311839188</v>
       </c>
       <c r="C19">
-        <v>7.11714328225853</v>
+        <v>7.000224699055282</v>
       </c>
       <c r="D19">
-        <v>5.950014230646474</v>
+        <v>7.969004001555543</v>
       </c>
       <c r="E19">
-        <v>7.809291787416825</v>
+        <v>12.64766273617574</v>
       </c>
       <c r="F19">
-        <v>24.77400494382804</v>
+        <v>37.19896184474565</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>17.16259231869254</v>
+        <v>27.93642284101615</v>
       </c>
       <c r="J19">
-        <v>5.705986144285912</v>
+        <v>9.981906947161551</v>
       </c>
       <c r="K19">
-        <v>13.21252091369861</v>
+        <v>11.22588446629315</v>
       </c>
       <c r="L19">
-        <v>7.32484107445715</v>
+        <v>11.08733311378244</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.16559490492585</v>
+        <v>28.71980780832604</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.57691921349871</v>
+        <v>14.17516974204164</v>
       </c>
       <c r="C20">
-        <v>7.180236806760355</v>
+        <v>7.022397658286919</v>
       </c>
       <c r="D20">
-        <v>6.023324703089496</v>
+        <v>7.979569491059434</v>
       </c>
       <c r="E20">
-        <v>7.83448902913326</v>
+        <v>12.64364562217031</v>
       </c>
       <c r="F20">
-        <v>24.82997825867108</v>
+        <v>37.17079329519781</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>17.10433741109244</v>
+        <v>27.90193103813732</v>
       </c>
       <c r="J20">
-        <v>5.689685362760821</v>
+        <v>9.975166492231789</v>
       </c>
       <c r="K20">
-        <v>13.4456766731483</v>
+        <v>11.29326901135258</v>
       </c>
       <c r="L20">
-        <v>7.383509211856786</v>
+        <v>11.09123658972175</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.14875427317232</v>
+        <v>28.68941499149013</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.59783320187135</v>
+        <v>14.48697558996007</v>
       </c>
       <c r="C21">
-        <v>7.388671766053236</v>
+        <v>7.095937434564773</v>
       </c>
       <c r="D21">
-        <v>6.265617584922791</v>
+        <v>8.016097267604298</v>
       </c>
       <c r="E21">
-        <v>7.922635051843773</v>
+        <v>12.63190756587277</v>
       </c>
       <c r="F21">
-        <v>25.04435161611265</v>
+        <v>37.08478528113556</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>16.9250003872089</v>
+        <v>27.79138866682548</v>
       </c>
       <c r="J21">
-        <v>5.636436238183838</v>
+        <v>9.953357345093952</v>
       </c>
       <c r="K21">
-        <v>14.20255144468651</v>
+        <v>11.5181017732066</v>
       </c>
       <c r="L21">
-        <v>7.580620649455659</v>
+        <v>11.1058504166956</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.11208551207615</v>
+        <v>28.59333579249629</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.23683701446267</v>
+        <v>14.68849893577594</v>
       </c>
       <c r="C22">
-        <v>7.522160848311062</v>
+        <v>7.143253988765075</v>
       </c>
       <c r="D22">
-        <v>6.420781778155284</v>
+        <v>8.040714271569176</v>
       </c>
       <c r="E22">
-        <v>7.982836349990709</v>
+        <v>12.62554331516855</v>
       </c>
       <c r="F22">
-        <v>25.20468055745263</v>
+        <v>37.03501720018937</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>16.82070642904706</v>
+        <v>27.72312749127765</v>
       </c>
       <c r="J22">
-        <v>5.602768198015302</v>
+        <v>9.939726187723176</v>
       </c>
       <c r="K22">
-        <v>14.67753641283973</v>
+        <v>11.66365017771092</v>
       </c>
       <c r="L22">
-        <v>7.70928103999699</v>
+        <v>11.11650800842922</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.1037252069744</v>
+        <v>28.53504679938781</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.89835355301092</v>
+        <v>14.58116910890288</v>
       </c>
       <c r="C23">
-        <v>7.45117071889587</v>
+        <v>7.118070519978168</v>
       </c>
       <c r="D23">
-        <v>6.33827083750582</v>
+        <v>8.027509143517687</v>
       </c>
       <c r="E23">
-        <v>7.950468992200772</v>
+        <v>12.6288206657584</v>
       </c>
       <c r="F23">
-        <v>25.11722101466914</v>
+        <v>37.06098935579058</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>16.87514218801105</v>
+        <v>27.75919512094058</v>
       </c>
       <c r="J23">
-        <v>5.620633669680132</v>
+        <v>9.946944578342016</v>
       </c>
       <c r="K23">
-        <v>14.42582288875219</v>
+        <v>11.58610968233005</v>
       </c>
       <c r="L23">
-        <v>7.640637312665801</v>
+        <v>11.11071928027739</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.10670983058785</v>
+        <v>28.56574425533531</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.55975258922574</v>
+        <v>14.17003989375941</v>
       </c>
       <c r="C24">
-        <v>7.176785123656458</v>
+        <v>7.021183549003175</v>
       </c>
       <c r="D24">
-        <v>6.019313438845323</v>
+        <v>7.978985355298018</v>
       </c>
       <c r="E24">
-        <v>7.833092187735537</v>
+        <v>12.64385959676397</v>
       </c>
       <c r="F24">
-        <v>24.82680709130088</v>
+        <v>37.17230771553382</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>17.10747653614397</v>
+        <v>27.90380505526312</v>
       </c>
       <c r="J24">
-        <v>5.690574809696932</v>
+        <v>9.975533488419545</v>
       </c>
       <c r="K24">
-        <v>13.43297269891387</v>
+        <v>11.2895739013687</v>
       </c>
       <c r="L24">
-        <v>7.380287036048692</v>
+        <v>11.09101656567718</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.14960608468598</v>
+        <v>28.6910613237316</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.99295511585925</v>
+        <v>13.71899948496729</v>
       </c>
       <c r="C25">
-        <v>6.869684676811199</v>
+        <v>6.913679272198976</v>
       </c>
       <c r="D25">
-        <v>5.662896627475948</v>
+        <v>7.929986127447243</v>
       </c>
       <c r="E25">
-        <v>7.717645200521647</v>
+        <v>12.66571731270737</v>
       </c>
       <c r="F25">
-        <v>24.59632282058457</v>
+        <v>37.31999215323981</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>17.40913400107035</v>
+        <v>28.07689411168252</v>
       </c>
       <c r="J25">
-        <v>5.770879239090002</v>
+        <v>10.00905701835531</v>
       </c>
       <c r="K25">
-        <v>12.27715302776081</v>
+        <v>10.9651967182061</v>
       </c>
       <c r="L25">
-        <v>7.099817814867773</v>
+        <v>11.0745807997194</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.25797455420539</v>
+        <v>28.84554074526537</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_249/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_249/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.38281187720569</v>
+        <v>13.73157050949602</v>
       </c>
       <c r="C2">
-        <v>6.832164312212983</v>
+        <v>6.634764737097193</v>
       </c>
       <c r="D2">
-        <v>7.896926053294598</v>
+        <v>5.391531282137593</v>
       </c>
       <c r="E2">
-        <v>12.68668211513331</v>
+        <v>7.642219718657254</v>
       </c>
       <c r="F2">
-        <v>37.45241620910736</v>
+        <v>24.49297058673498</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>28.21906590238764</v>
+        <v>17.6707548176423</v>
       </c>
       <c r="J2">
-        <v>10.03606963874178</v>
+        <v>5.834201908095438</v>
       </c>
       <c r="K2">
-        <v>10.72411960809373</v>
+        <v>11.35287747413499</v>
       </c>
       <c r="L2">
-        <v>11.06668315814925</v>
+        <v>6.894850240662104</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.97586259261839</v>
+        <v>18.38593238357578</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.15373421135726</v>
+        <v>12.8211469091513</v>
       </c>
       <c r="C3">
-        <v>6.775562307236552</v>
+        <v>6.470546737508275</v>
       </c>
       <c r="D3">
-        <v>7.876471785846572</v>
+        <v>5.203113957087917</v>
       </c>
       <c r="E3">
-        <v>12.703939935333</v>
+        <v>7.597044155885138</v>
       </c>
       <c r="F3">
-        <v>37.55689932773253</v>
+        <v>24.46171975626032</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>28.3246128628004</v>
+        <v>17.87073226928695</v>
       </c>
       <c r="J3">
-        <v>10.0558393029501</v>
+        <v>5.87974329583637</v>
       </c>
       <c r="K3">
-        <v>10.56022031431843</v>
+        <v>10.68092320702858</v>
       </c>
       <c r="L3">
-        <v>11.06398152686172</v>
+        <v>6.757582292207275</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>29.07451256594343</v>
+        <v>18.50017405255889</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.01292755549217</v>
+        <v>12.26370786471507</v>
       </c>
       <c r="C4">
-        <v>6.740177643211755</v>
+        <v>6.367433143821438</v>
       </c>
       <c r="D4">
-        <v>7.864896692918354</v>
+        <v>5.085620271166285</v>
       </c>
       <c r="E4">
-        <v>12.71604418821457</v>
+        <v>7.572218133709438</v>
       </c>
       <c r="F4">
-        <v>37.62830855442292</v>
+        <v>24.46076057151675</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>28.39395801630201</v>
+        <v>18.00410984295775</v>
       </c>
       <c r="J4">
-        <v>10.06870283130541</v>
+        <v>5.909005744581662</v>
       </c>
       <c r="K4">
-        <v>10.45963443465757</v>
+        <v>10.24601207632445</v>
       </c>
       <c r="L4">
-        <v>11.06363899743057</v>
+        <v>6.674347942910493</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>29.14017482780638</v>
+        <v>18.58309239434288</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.95558083655272</v>
+        <v>12.0295966391379</v>
       </c>
       <c r="C5">
-        <v>6.725605647484099</v>
+        <v>6.324870965522468</v>
       </c>
       <c r="D5">
-        <v>7.860430381992954</v>
+        <v>5.037357270534323</v>
       </c>
       <c r="E5">
-        <v>12.72135647915258</v>
+        <v>7.562830217943685</v>
       </c>
       <c r="F5">
-        <v>37.65923092040819</v>
+        <v>24.46481571215268</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>28.4233584200218</v>
+        <v>18.06104279873388</v>
       </c>
       <c r="J5">
-        <v>10.07412755763607</v>
+        <v>5.921257869809473</v>
       </c>
       <c r="K5">
-        <v>10.41870426955324</v>
+        <v>10.06320448519584</v>
       </c>
       <c r="L5">
-        <v>11.06383173903096</v>
+        <v>6.640730126118854</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>29.16821213268886</v>
+        <v>18.61997889451557</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.94606256384295</v>
+        <v>11.99030568742302</v>
       </c>
       <c r="C6">
-        <v>6.723176951550812</v>
+        <v>6.317771749449054</v>
       </c>
       <c r="D6">
-        <v>7.859703982556993</v>
+        <v>5.029322260473243</v>
       </c>
       <c r="E6">
-        <v>12.72226152972425</v>
+        <v>7.561315267244101</v>
       </c>
       <c r="F6">
-        <v>37.66447556738143</v>
+        <v>24.46575350185657</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>28.4283093007196</v>
+        <v>18.07065002079989</v>
       </c>
       <c r="J6">
-        <v>10.07503937950682</v>
+        <v>5.923312120826006</v>
       </c>
       <c r="K6">
-        <v>10.41191281736044</v>
+        <v>10.0325139083098</v>
       </c>
       <c r="L6">
-        <v>11.06388385230211</v>
+        <v>6.635167172051573</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>29.17294495724375</v>
+        <v>18.6262875984816</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.012153928391</v>
+        <v>12.26057857732742</v>
       </c>
       <c r="C7">
-        <v>6.739981729303392</v>
+        <v>6.366861288692463</v>
       </c>
       <c r="D7">
-        <v>7.864835439759278</v>
+        <v>5.084970834096358</v>
       </c>
       <c r="E7">
-        <v>12.71611429350102</v>
+        <v>7.572088578895706</v>
       </c>
       <c r="F7">
-        <v>37.62871820782303</v>
+        <v>24.46079744322126</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>28.39434989729133</v>
+        <v>18.00486731732877</v>
       </c>
       <c r="J7">
-        <v>10.06877525056701</v>
+        <v>5.909169654401249</v>
       </c>
       <c r="K7">
-        <v>10.45908213316095</v>
+        <v>10.24356919409096</v>
       </c>
       <c r="L7">
-        <v>11.06364024954631</v>
+        <v>6.673893293928566</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>29.14054776942824</v>
+        <v>18.58357747011753</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.3038999270391</v>
+        <v>13.42031630942089</v>
       </c>
       <c r="C8">
-        <v>6.812782541872599</v>
+        <v>6.578634360535786</v>
       </c>
       <c r="D8">
-        <v>7.88967119748086</v>
+        <v>5.32697986770132</v>
       </c>
       <c r="E8">
-        <v>12.69231998383495</v>
+        <v>7.626037087340004</v>
       </c>
       <c r="F8">
-        <v>37.48693475803132</v>
+        <v>24.4783300536168</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>28.25451665616574</v>
+        <v>17.737457531658</v>
       </c>
       <c r="J8">
-        <v>10.04273604730381</v>
+        <v>5.849635126232233</v>
       </c>
       <c r="K8">
-        <v>10.66762508636207</v>
+        <v>11.12583969606179</v>
       </c>
       <c r="L8">
-        <v>11.06547926912064</v>
+        <v>6.847324781061078</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.00882008769197</v>
+        <v>18.42260114661364</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.87173661705192</v>
+        <v>15.53733668949445</v>
       </c>
       <c r="C9">
-        <v>6.950273706439337</v>
+        <v>6.974556777145639</v>
       </c>
       <c r="D9">
-        <v>7.946032235522976</v>
+        <v>5.784470820815259</v>
       </c>
       <c r="E9">
-        <v>12.65759939393346</v>
+        <v>7.755043276542841</v>
       </c>
       <c r="F9">
-        <v>37.26656081265286</v>
+        <v>24.66332062197109</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>28.01630222525489</v>
+        <v>17.30110358518367</v>
       </c>
       <c r="J9">
-        <v>9.997404019971057</v>
+        <v>5.743178057180846</v>
       </c>
       <c r="K9">
-        <v>11.07492515923822</v>
+        <v>12.67786824447128</v>
       </c>
       <c r="L9">
-        <v>11.07946813859805</v>
+        <v>7.194141643372102</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>28.79092703572812</v>
+        <v>18.21364415921944</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.28233424825462</v>
+        <v>16.93265483794426</v>
       </c>
       <c r="C10">
-        <v>7.047726702870719</v>
+        <v>7.252166915030872</v>
       </c>
       <c r="D10">
-        <v>7.991899922352068</v>
+        <v>6.106928280429891</v>
       </c>
       <c r="E10">
-        <v>12.63933534555403</v>
+        <v>7.864072640155544</v>
       </c>
       <c r="F10">
-        <v>37.13991799865087</v>
+        <v>24.89890176858769</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>27.86320918337089</v>
+        <v>17.04017767665345</v>
       </c>
       <c r="J10">
-        <v>9.967563316600048</v>
+        <v>5.671208908115483</v>
       </c>
       <c r="K10">
-        <v>11.37049019183829</v>
+        <v>13.7091109953399</v>
       </c>
       <c r="L10">
-        <v>11.09598834228598</v>
+        <v>7.450977790180731</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>28.655526989793</v>
+        <v>18.13282437445886</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.46689614775682</v>
+        <v>17.53332996326091</v>
       </c>
       <c r="C11">
-        <v>7.091214984104803</v>
+        <v>7.375323166276607</v>
       </c>
       <c r="D11">
-        <v>8.013686470472233</v>
+        <v>6.250099420902851</v>
       </c>
       <c r="E11">
-        <v>12.63259190499313</v>
+        <v>7.916772053070428</v>
       </c>
       <c r="F11">
-        <v>37.08998309681482</v>
+        <v>25.02929431345112</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>27.79831942979865</v>
+        <v>16.9358833985781</v>
       </c>
       <c r="J11">
-        <v>9.954734229075743</v>
+        <v>5.639820679181118</v>
       </c>
       <c r="K11">
-        <v>11.50360955901336</v>
+        <v>14.15465556606524</v>
       </c>
       <c r="L11">
-        <v>11.10483874285126</v>
+        <v>7.567854423282437</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>28.5992991658652</v>
+        <v>18.1135680623573</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.53640271314375</v>
+        <v>17.75594637954946</v>
       </c>
       <c r="C12">
-        <v>7.107555553865816</v>
+        <v>7.421491597170228</v>
       </c>
       <c r="D12">
-        <v>8.022064575736092</v>
+        <v>6.303770659196776</v>
       </c>
       <c r="E12">
-        <v>12.63026264678017</v>
+        <v>7.937173131669266</v>
       </c>
       <c r="F12">
-        <v>37.07217913818938</v>
+        <v>25.08213179670509</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>27.77443069409023</v>
+        <v>16.89859309383889</v>
       </c>
       <c r="J12">
-        <v>9.949982941436955</v>
+        <v>5.628129044063352</v>
       </c>
       <c r="K12">
-        <v>11.55378327987766</v>
+        <v>14.31999623773579</v>
       </c>
       <c r="L12">
-        <v>11.10838022199987</v>
+        <v>7.61208725418866</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>28.57877960485519</v>
+        <v>18.10894117630561</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.52145124534587</v>
+        <v>17.70821664890069</v>
       </c>
       <c r="C13">
-        <v>7.104042087601346</v>
+        <v>7.411569478890942</v>
       </c>
       <c r="D13">
-        <v>8.02025457979277</v>
+        <v>6.292236376133811</v>
       </c>
       <c r="E13">
-        <v>12.63075432845091</v>
+        <v>7.932759625932065</v>
       </c>
       <c r="F13">
-        <v>37.07596435793606</v>
+        <v>25.07059651982746</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>27.77954515492711</v>
+        <v>16.9065240045522</v>
       </c>
       <c r="J13">
-        <v>9.951001472298387</v>
+        <v>5.630638396437195</v>
       </c>
       <c r="K13">
-        <v>11.54298863155069</v>
+        <v>14.28453711969494</v>
       </c>
       <c r="L13">
-        <v>11.10760908248935</v>
+        <v>7.602562547997599</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>28.58316447759692</v>
+        <v>18.10981674604397</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.47262252435043</v>
+        <v>17.55174157379989</v>
       </c>
       <c r="C14">
-        <v>7.092561922901125</v>
+        <v>7.379130947063558</v>
       </c>
       <c r="D14">
-        <v>8.014373202648663</v>
+        <v>6.254526102382162</v>
       </c>
       <c r="E14">
-        <v>12.63239578366404</v>
+        <v>7.918441551998014</v>
       </c>
       <c r="F14">
-        <v>37.08849619428577</v>
+        <v>25.03357125559407</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>27.79634038784782</v>
+        <v>16.93277054389541</v>
       </c>
       <c r="J14">
-        <v>9.954341199477955</v>
+        <v>5.638854903681785</v>
       </c>
       <c r="K14">
-        <v>11.50774234916403</v>
+        <v>14.16832583977808</v>
       </c>
       <c r="L14">
-        <v>11.10512630585988</v>
+        <v>7.571494174661715</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>28.59759551749138</v>
+        <v>18.11313313733833</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.44266180715475</v>
+        <v>17.45526651163164</v>
       </c>
       <c r="C15">
-        <v>7.085513204794651</v>
+        <v>7.359199952492965</v>
       </c>
       <c r="D15">
-        <v>8.01078722592873</v>
+        <v>6.231355495564177</v>
       </c>
       <c r="E15">
-        <v>12.63343041598829</v>
+        <v>7.909729226318873</v>
       </c>
       <c r="F15">
-        <v>37.09631629193385</v>
+        <v>25.01134638476564</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>27.80671698276855</v>
+        <v>16.94913839106917</v>
       </c>
       <c r="J15">
-        <v>9.956400776542603</v>
+        <v>5.643913076322667</v>
       </c>
       <c r="K15">
-        <v>11.48612102088526</v>
+        <v>14.09670370275424</v>
       </c>
       <c r="L15">
-        <v>11.10363021948705</v>
+        <v>7.552459640299766</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>28.60653560382215</v>
+        <v>18.11551602581595</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.27022249013736</v>
+        <v>16.89271829631324</v>
       </c>
       <c r="C16">
-        <v>7.044867134276743</v>
+        <v>7.244053770186063</v>
       </c>
       <c r="D16">
-        <v>7.99049427899344</v>
+        <v>6.09749749247111</v>
       </c>
       <c r="E16">
-        <v>12.63980747717007</v>
+        <v>7.860690941216025</v>
       </c>
       <c r="F16">
-        <v>37.14333595302956</v>
+        <v>24.89085812270867</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>27.86754553467521</v>
+        <v>17.04729448527736</v>
       </c>
       <c r="J16">
-        <v>9.968416696118151</v>
+        <v>5.673287395111369</v>
       </c>
       <c r="K16">
-        <v>11.36175988882503</v>
+        <v>13.67952018924414</v>
       </c>
       <c r="L16">
-        <v>11.09543664962559</v>
+        <v>7.443337682630917</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>28.65930968274095</v>
+        <v>18.13444765252647</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.16382143514836</v>
+        <v>16.5389256035163</v>
       </c>
       <c r="C17">
-        <v>7.01971158130447</v>
+        <v>7.172599880289292</v>
       </c>
       <c r="D17">
-        <v>7.978278019207361</v>
+        <v>6.014449778515113</v>
       </c>
       <c r="E17">
-        <v>12.64411993560567</v>
+        <v>7.831401315137011</v>
       </c>
       <c r="F17">
-        <v>37.17414807369154</v>
+        <v>24.82297882528577</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>27.90607932809586</v>
+        <v>17.11129021555649</v>
       </c>
       <c r="J17">
-        <v>9.975978748425268</v>
+        <v>5.691653639268536</v>
       </c>
       <c r="K17">
-        <v>11.28509481925736</v>
+        <v>13.41756098630056</v>
       </c>
       <c r="L17">
-        <v>11.09075077724929</v>
+        <v>7.376382004808645</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>28.69306005390411</v>
+        <v>18.15064969143133</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.10241692470874</v>
+        <v>16.33222414721334</v>
       </c>
       <c r="C18">
-        <v>7.005163734280216</v>
+        <v>7.131207782625708</v>
       </c>
       <c r="D18">
-        <v>7.971338524420103</v>
+        <v>5.966353899373661</v>
       </c>
       <c r="E18">
-        <v>12.64674769446148</v>
+        <v>7.814846713665736</v>
       </c>
       <c r="F18">
-        <v>37.19259276978354</v>
+        <v>24.78611566634866</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>27.92869031617543</v>
+        <v>17.14944596114165</v>
       </c>
       <c r="J18">
-        <v>9.98039844417826</v>
+        <v>5.702344551488203</v>
       </c>
       <c r="K18">
-        <v>11.24087598551031</v>
+        <v>13.26466905285808</v>
       </c>
       <c r="L18">
-        <v>11.08818139574677</v>
+        <v>7.337876437515341</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>28.71297741995767</v>
+        <v>18.16160765691738</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.08159311839188</v>
+        <v>16.2616858316928</v>
       </c>
       <c r="C19">
-        <v>7.000224699055282</v>
+        <v>7.117143282258712</v>
       </c>
       <c r="D19">
-        <v>7.969004001555543</v>
+        <v>5.950014230646425</v>
       </c>
       <c r="E19">
-        <v>12.64766273617574</v>
+        <v>7.809291787416785</v>
       </c>
       <c r="F19">
-        <v>37.19896184474565</v>
+        <v>24.77400494382814</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>27.93642284101615</v>
+        <v>17.16259231869269</v>
       </c>
       <c r="J19">
-        <v>9.981906947161551</v>
+        <v>5.705986144285914</v>
       </c>
       <c r="K19">
-        <v>11.22588446629315</v>
+        <v>13.21252091369861</v>
       </c>
       <c r="L19">
-        <v>11.08733311378244</v>
+        <v>7.324841074457112</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>28.71980780832604</v>
+        <v>18.16559490492601</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.17516974204164</v>
+        <v>16.57691921349875</v>
       </c>
       <c r="C20">
-        <v>7.022397658286919</v>
+        <v>7.180236806760332</v>
       </c>
       <c r="D20">
-        <v>7.979569491059434</v>
+        <v>6.023324703089385</v>
       </c>
       <c r="E20">
-        <v>12.64364562217031</v>
+        <v>7.834489029133263</v>
       </c>
       <c r="F20">
-        <v>37.17079329519781</v>
+        <v>24.82997825867093</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>27.90193103813732</v>
+        <v>17.10433741109235</v>
       </c>
       <c r="J20">
-        <v>9.975166492231789</v>
+        <v>5.689685362760888</v>
       </c>
       <c r="K20">
-        <v>11.29326901135258</v>
+        <v>13.44567667314834</v>
       </c>
       <c r="L20">
-        <v>11.09123658972175</v>
+        <v>7.383509211856784</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>28.68941499149013</v>
+        <v>18.14875427317223</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.48697558996007</v>
+        <v>17.59783320187135</v>
       </c>
       <c r="C21">
-        <v>7.095937434564773</v>
+        <v>7.388671766053327</v>
       </c>
       <c r="D21">
-        <v>8.016097267604298</v>
+        <v>6.265617584922819</v>
       </c>
       <c r="E21">
-        <v>12.63190756587277</v>
+        <v>7.922635051843853</v>
       </c>
       <c r="F21">
-        <v>37.08478528113556</v>
+        <v>25.0443516161126</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>27.79138866682548</v>
+        <v>16.9250003872089</v>
       </c>
       <c r="J21">
-        <v>9.953357345093952</v>
+        <v>5.636436238183932</v>
       </c>
       <c r="K21">
-        <v>11.5181017732066</v>
+        <v>14.20255144468654</v>
       </c>
       <c r="L21">
-        <v>11.1058504166956</v>
+        <v>7.580620649455666</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>28.59333579249629</v>
+        <v>18.1120855120761</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.68849893577594</v>
+        <v>18.2368370144627</v>
       </c>
       <c r="C22">
-        <v>7.143253988765075</v>
+        <v>7.522160848311049</v>
       </c>
       <c r="D22">
-        <v>8.040714271569176</v>
+        <v>6.420781778155201</v>
       </c>
       <c r="E22">
-        <v>12.62554331516855</v>
+        <v>7.982836349990661</v>
       </c>
       <c r="F22">
-        <v>37.03501720018937</v>
+        <v>25.20468055745246</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>27.72312749127765</v>
+        <v>16.82070642904698</v>
       </c>
       <c r="J22">
-        <v>9.939726187723176</v>
+        <v>5.602768198015331</v>
       </c>
       <c r="K22">
-        <v>11.66365017771092</v>
+        <v>14.67753641283974</v>
       </c>
       <c r="L22">
-        <v>11.11650800842922</v>
+        <v>7.709281039996934</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>28.53504679938781</v>
+        <v>18.10372520697432</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.58116910890288</v>
+        <v>17.89835355301094</v>
       </c>
       <c r="C23">
-        <v>7.118070519978168</v>
+        <v>7.451170718895747</v>
       </c>
       <c r="D23">
-        <v>8.027509143517687</v>
+        <v>6.338270837505886</v>
       </c>
       <c r="E23">
-        <v>12.6288206657584</v>
+        <v>7.950468992200774</v>
       </c>
       <c r="F23">
-        <v>37.06098935579058</v>
+        <v>25.11722101466922</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>27.75919512094058</v>
+        <v>16.87514218801099</v>
       </c>
       <c r="J23">
-        <v>9.946944578342016</v>
+        <v>5.620633669680037</v>
       </c>
       <c r="K23">
-        <v>11.58610968233005</v>
+        <v>14.4258228887522</v>
       </c>
       <c r="L23">
-        <v>11.11071928027739</v>
+        <v>7.640637312665834</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>28.56574425533531</v>
+        <v>18.10670983058785</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.17003989375941</v>
+        <v>16.55975258922578</v>
       </c>
       <c r="C24">
-        <v>7.021183549003175</v>
+        <v>7.176785123656436</v>
       </c>
       <c r="D24">
-        <v>7.978985355298018</v>
+        <v>6.019313438845288</v>
       </c>
       <c r="E24">
-        <v>12.64385959676397</v>
+        <v>7.833092187735524</v>
       </c>
       <c r="F24">
-        <v>37.17230771553382</v>
+        <v>24.82680709130075</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>27.90380505526312</v>
+        <v>17.10747653614391</v>
       </c>
       <c r="J24">
-        <v>9.975533488419545</v>
+        <v>5.690574809696958</v>
       </c>
       <c r="K24">
-        <v>11.2895739013687</v>
+        <v>13.43297269891388</v>
       </c>
       <c r="L24">
-        <v>11.09101656567718</v>
+        <v>7.380287036048665</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>28.6910613237316</v>
+        <v>18.14960608468593</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.71899948496729</v>
+        <v>14.99295511585925</v>
       </c>
       <c r="C25">
-        <v>6.913679272198976</v>
+        <v>6.869684676811337</v>
       </c>
       <c r="D25">
-        <v>7.929986127447243</v>
+        <v>5.662896627475968</v>
       </c>
       <c r="E25">
-        <v>12.66571731270737</v>
+        <v>7.717645200521697</v>
       </c>
       <c r="F25">
-        <v>37.31999215323981</v>
+        <v>24.59632282058465</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>28.07689411168252</v>
+        <v>17.40913400107042</v>
       </c>
       <c r="J25">
-        <v>10.00905701835531</v>
+        <v>5.770879239089972</v>
       </c>
       <c r="K25">
-        <v>10.9651967182061</v>
+        <v>12.27715302776085</v>
       </c>
       <c r="L25">
-        <v>11.0745807997194</v>
+        <v>7.099817814867776</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>28.84554074526537</v>
+        <v>18.25797455420541</v>
       </c>
     </row>
   </sheetData>
